--- a/doc/SQL.xlsx
+++ b/doc/SQL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangshuai/IdeaProjects/hopxzProjectParent/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangshuai/IdeaProjects/autoBackupFileService/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8566A682-FDB8-A748-B9EF-776A8FDCADBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BD6A6A-1E67-4541-93B5-A92B5DBA2BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="7" xr2:uid="{D44A09FC-0B69-434B-9002-F333A799BDD0}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17860" activeTab="7" xr2:uid="{D44A09FC-0B69-434B-9002-F333A799BDD0}"/>
   </bookViews>
   <sheets>
     <sheet name="数据表汇总目录" sheetId="1" r:id="rId1"/>
@@ -422,16 +422,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>此文件是否校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>chkSign</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0:不校验
 1:需要校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此文件是否需要校验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1525,7 +1525,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1608,16 +1608,16 @@
     </row>
     <row r="7" spans="1:4" ht="34">
       <c r="A7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" t="s">
         <v>97</v>
-      </c>
-      <c r="B7" t="s">
-        <v>98</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/doc/SQL.xlsx
+++ b/doc/SQL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangshuai/IdeaProjects/autoBackupFileService/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BD6A6A-1E67-4541-93B5-A92B5DBA2BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99FC67A-1124-6E40-933B-48B50B8A7962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17860" activeTab="7" xr2:uid="{D44A09FC-0B69-434B-9002-F333A799BDD0}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17860" activeTab="2" xr2:uid="{D44A09FC-0B69-434B-9002-F333A799BDD0}"/>
   </bookViews>
   <sheets>
     <sheet name="数据表汇总目录" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="101">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -398,11 +398,6 @@
   </si>
   <si>
     <t>backupFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:未备份
-1:已备份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -432,6 +427,16 @@
   </si>
   <si>
     <t>此文件是否需要校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:未备份
+1:已备份
+2:处理中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1161,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65B6CBF-DABB-114F-860F-52B022741D39}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1210,7 +1215,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
         <v>87</v>
@@ -1242,6 +1247,11 @@
       </c>
       <c r="D6" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="11:11">
+      <c r="K22" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1524,8 +1534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52C7B64-E92D-1A48-A430-E5CD643EA8B3}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1583,18 +1593,18 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
         <v>94</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="51">
+      <c r="A6" t="s">
         <v>95</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34">
-      <c r="A6" t="s">
-        <v>96</v>
       </c>
       <c r="B6" t="s">
         <v>91</v>
@@ -1603,21 +1613,21 @@
         <v>30</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="34">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/doc/SQL.xlsx
+++ b/doc/SQL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangshuai/IdeaProjects/autoBackupFileService/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99FC67A-1124-6E40-933B-48B50B8A7962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC63E6AC-920C-174A-BA2E-BC72C40CDCDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17860" activeTab="2" xr2:uid="{D44A09FC-0B69-434B-9002-F333A799BDD0}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17860" activeTab="7" xr2:uid="{D44A09FC-0B69-434B-9002-F333A799BDD0}"/>
   </bookViews>
   <sheets>
     <sheet name="数据表汇总目录" sheetId="1" r:id="rId1"/>
@@ -1168,7 +1168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65B6CBF-DABB-114F-860F-52B022741D39}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
@@ -1534,7 +1534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52C7B64-E92D-1A48-A430-E5CD643EA8B3}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/doc/SQL.xlsx
+++ b/doc/SQL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangshuai/IdeaProjects/autoBackupFileService/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC63E6AC-920C-174A-BA2E-BC72C40CDCDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D222036-9C19-594E-AB01-AA5A17C5FC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17860" activeTab="7" xr2:uid="{D44A09FC-0B69-434B-9002-F333A799BDD0}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="9" xr2:uid="{D44A09FC-0B69-434B-9002-F333A799BDD0}"/>
   </bookViews>
   <sheets>
     <sheet name="数据表汇总目录" sheetId="1" r:id="rId1"/>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD3998C-48CB-0D42-A3D7-BA3258F21CA7}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1076,7 +1076,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1359,7 +1359,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1414,7 +1414,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1469,7 +1469,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1534,7 +1534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52C7B64-E92D-1A48-A430-E5CD643EA8B3}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1643,7 +1643,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA50D833-CCD8-2342-8AEE-063D02CAA241}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>

--- a/doc/SQL.xlsx
+++ b/doc/SQL.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangshuai/IdeaProjects/autoBackupFileService/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D222036-9C19-594E-AB01-AA5A17C5FC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC41D16-EC6E-E144-990B-A4B694D83C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="9" xr2:uid="{D44A09FC-0B69-434B-9002-F333A799BDD0}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17860" activeTab="2" xr2:uid="{D44A09FC-0B69-434B-9002-F333A799BDD0}"/>
   </bookViews>
   <sheets>
     <sheet name="数据表汇总目录" sheetId="1" r:id="rId1"/>
     <sheet name="user_info" sheetId="2" r:id="rId2"/>
-    <sheet name="nodeal_tmpfile_list" sheetId="8" r:id="rId3"/>
-    <sheet name="cfg_msg_list" sheetId="9" r:id="rId4"/>
-    <sheet name="recv_send_msg_list" sheetId="10" r:id="rId5"/>
-    <sheet name="user_role_cfg" sheetId="3" r:id="rId6"/>
-    <sheet name="role_info" sheetId="4" r:id="rId7"/>
-    <sheet name="nodeal_file_list" sheetId="5" r:id="rId8"/>
-    <sheet name="devices_info" sheetId="6" r:id="rId9"/>
-    <sheet name="user_device_cfg" sheetId="7" r:id="rId10"/>
+    <sheet name="server_initmsg" sheetId="11" r:id="rId3"/>
+    <sheet name="nodeal_tmpfile_list" sheetId="8" r:id="rId4"/>
+    <sheet name="cfg_msg_list" sheetId="9" r:id="rId5"/>
+    <sheet name="recv_send_msg_list" sheetId="10" r:id="rId6"/>
+    <sheet name="user_role_cfg" sheetId="3" r:id="rId7"/>
+    <sheet name="role_info" sheetId="4" r:id="rId8"/>
+    <sheet name="nodeal_file_list" sheetId="5" r:id="rId9"/>
+    <sheet name="devices_info" sheetId="6" r:id="rId10"/>
+    <sheet name="user_device_cfg" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="110">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -437,6 +438,41 @@
   </si>
   <si>
     <t>tmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>init_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化字段值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>init_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server_initmsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务参数初始化表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server_initmsg!A1</t>
+  </si>
+  <si>
+    <t>初始化字段属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>init_attribute</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -843,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582454E4-1452-7246-99E1-2A6DC994D62F}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -999,6 +1035,20 @@
         <v>67</v>
       </c>
     </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1011,16 +1061,72 @@
     <hyperlink ref="E8" location="nodeal_tmpfile_list!A1" display="nodeal_tmpfile_list!A1" xr:uid="{D31859A3-64EF-E94E-ACC8-A480E99D5CB6}"/>
     <hyperlink ref="E9" location="cfg_msg_list!A1" display="cfg_msg_list!A1" xr:uid="{40B6DF11-C08A-3041-B7DC-5C0E6338941E}"/>
     <hyperlink ref="E10" location="recv_send_msg_list!A1" display="recv_send_msg_list!A1" xr:uid="{8D5531F9-2EEE-7640-9BCD-04E001004104}"/>
+    <hyperlink ref="E11" location="server_initmsg!A1" display="server_initmsg!A1" xr:uid="{54ABF5C0-82BA-C047-B997-0F425195E7B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA50D833-CCD8-2342-8AEE-063D02CAA241}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D1" location="数据表汇总目录!A1" display="数据表汇总目录!A1" xr:uid="{AA10FA5C-57F3-A746-B611-1DE289A3F757}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD3998C-48CB-0D42-A3D7-BA3258F21CA7}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1076,7 +1182,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1165,6 +1271,66 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4A82B0-5BD0-604A-8A9A-5C37E30D196D}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65B6CBF-DABB-114F-860F-52B022741D39}">
   <dimension ref="A1:K22"/>
   <sheetViews>
@@ -1263,7 +1429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35D9AFB-10ED-1C4A-8EC5-950C8F2C7298}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -1354,7 +1520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46248D16-A6E7-F64C-85C3-1283E47AA31D}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1409,7 +1575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD643152-AF0D-574D-962C-A9A13A089C74}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1464,7 +1630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141438A8-08BD-2749-8B52-57BC92C764F7}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1530,7 +1696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52C7B64-E92D-1A48-A430-E5CD643EA8B3}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -1637,59 +1803,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA50D833-CCD8-2342-8AEE-063D02CAA241}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D1" location="数据表汇总目录!A1" display="数据表汇总目录!A1" xr:uid="{AA10FA5C-57F3-A746-B611-1DE289A3F757}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>